--- a/DetectorNumeros/frecuencias/matrices_nueve_10.xlsx
+++ b/DetectorNumeros/frecuencias/matrices_nueve_10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/284316674ca198aa/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guere\Documents\Tec\7mo\IA\Programas 2do Parcial\DetectorNumeros\frecuencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{39101DC9-8F84-49FF-80E9-E9E350726512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84AACBDA-2B8E-4922-96E7-6EC1D5BE22BD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81FDF62-0E19-44DE-B9A9-20495543642C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix1" sheetId="1" r:id="rId1"/>
@@ -5235,7 +5235,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DetectorNumeros/frecuencias/matrices_nueve_10.xlsx
+++ b/DetectorNumeros/frecuencias/matrices_nueve_10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guere\Documents\Tec\7mo\IA\Programas 2do Parcial\DetectorNumeros\frecuencias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Escuela\7mo_semestre\Inteligencia Artificial\CodigosRepo\Programas-2do-Parcial\DetectorNumeros\frecuencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81FDF62-0E19-44DE-B9A9-20495543642C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B03605-411F-4FA3-A528-34A6C591039C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix1" sheetId="1" r:id="rId1"/>
@@ -379,11 +379,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB28" sqref="A1:AB28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="28" width="2" bestFit="1" customWidth="1"/>
     <col min="30" max="57" width="2" bestFit="1" customWidth="1"/>
@@ -391,7 +391,7 @@
     <col min="88" max="115" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2812,12 +2812,12 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="28" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -5234,16 +5234,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219D6D53-23EC-4B65-BECD-73F93C18894F}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="28" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>SUM(matrix1:matrix10!A1)</f>
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>SUM(matrix1:matrix10!A2)</f>
         <v>0</v>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>SUM(matrix1:matrix10!A3)</f>
         <v>0</v>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>SUM(matrix1:matrix10!A4)</f>
         <v>0</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>SUM(matrix1:matrix10!A5)</f>
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>SUM(matrix1:matrix10!A6)</f>
         <v>0</v>
@@ -5856,47 +5856,47 @@
       </c>
       <c r="K6">
         <f>SUM(matrix1:matrix10!K6)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6">
         <f>SUM(matrix1:matrix10!L6)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6">
         <f>SUM(matrix1:matrix10!M6)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N6">
         <f>SUM(matrix1:matrix10!N6)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O6">
         <f>SUM(matrix1:matrix10!O6)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P6">
         <f>SUM(matrix1:matrix10!P6)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q6">
         <f>SUM(matrix1:matrix10!Q6)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R6">
         <f>SUM(matrix1:matrix10!R6)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S6">
         <f>SUM(matrix1:matrix10!S6)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T6">
         <f>SUM(matrix1:matrix10!T6)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U6">
         <f>SUM(matrix1:matrix10!U6)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V6">
         <f>SUM(matrix1:matrix10!V6)</f>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>SUM(matrix1:matrix10!A7)</f>
         <v>0</v>
@@ -5962,7 +5962,7 @@
       </c>
       <c r="I7">
         <f>SUM(matrix1:matrix10!I7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <f>SUM(matrix1:matrix10!J7)</f>
@@ -5970,43 +5970,43 @@
       </c>
       <c r="K7">
         <f>SUM(matrix1:matrix10!K7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <f>SUM(matrix1:matrix10!L7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7">
         <f>SUM(matrix1:matrix10!M7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7">
         <f>SUM(matrix1:matrix10!N7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <f>SUM(matrix1:matrix10!O7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P7">
         <f>SUM(matrix1:matrix10!P7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q7">
         <f>SUM(matrix1:matrix10!Q7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R7">
         <f>SUM(matrix1:matrix10!R7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7">
         <f>SUM(matrix1:matrix10!S7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T7">
         <f>SUM(matrix1:matrix10!T7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U7">
         <f>SUM(matrix1:matrix10!U7)</f>
@@ -6014,11 +6014,11 @@
       </c>
       <c r="V7">
         <f>SUM(matrix1:matrix10!V7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <f>SUM(matrix1:matrix10!W7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <f>SUM(matrix1:matrix10!X7)</f>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>SUM(matrix1:matrix10!A8)</f>
         <v>0</v>
@@ -6076,15 +6076,15 @@
       </c>
       <c r="I8">
         <f>SUM(matrix1:matrix10!I8)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <f>SUM(matrix1:matrix10!J8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <f>SUM(matrix1:matrix10!K8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f>SUM(matrix1:matrix10!L8)</f>
@@ -6124,15 +6124,15 @@
       </c>
       <c r="U8">
         <f>SUM(matrix1:matrix10!U8)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V8">
         <f>SUM(matrix1:matrix10!V8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <f>SUM(matrix1:matrix10!W8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <f>SUM(matrix1:matrix10!X8)</f>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>SUM(matrix1:matrix10!A9)</f>
         <v>0</v>
@@ -6190,15 +6190,15 @@
       </c>
       <c r="I9">
         <f>SUM(matrix1:matrix10!I9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <f>SUM(matrix1:matrix10!J9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <f>SUM(matrix1:matrix10!K9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f>SUM(matrix1:matrix10!L9)</f>
@@ -6238,15 +6238,15 @@
       </c>
       <c r="U9">
         <f>SUM(matrix1:matrix10!U9)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V9">
         <f>SUM(matrix1:matrix10!V9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <f>SUM(matrix1:matrix10!W9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <f>SUM(matrix1:matrix10!X9)</f>
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>SUM(matrix1:matrix10!A10)</f>
         <v>0</v>
@@ -6304,15 +6304,15 @@
       </c>
       <c r="I10">
         <f>SUM(matrix1:matrix10!I10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <f>SUM(matrix1:matrix10!J10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f>SUM(matrix1:matrix10!K10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <f>SUM(matrix1:matrix10!L10)</f>
@@ -6352,15 +6352,15 @@
       </c>
       <c r="U10">
         <f>SUM(matrix1:matrix10!U10)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V10">
         <f>SUM(matrix1:matrix10!V10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <f>SUM(matrix1:matrix10!W10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <f>SUM(matrix1:matrix10!X10)</f>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>SUM(matrix1:matrix10!A11)</f>
         <v>0</v>
@@ -6418,15 +6418,15 @@
       </c>
       <c r="I11">
         <f>SUM(matrix1:matrix10!I11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <f>SUM(matrix1:matrix10!J11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11">
         <f>SUM(matrix1:matrix10!K11)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <f>SUM(matrix1:matrix10!L11)</f>
@@ -6466,15 +6466,15 @@
       </c>
       <c r="U11">
         <f>SUM(matrix1:matrix10!U11)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V11">
         <f>SUM(matrix1:matrix10!V11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <f>SUM(matrix1:matrix10!W11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <f>SUM(matrix1:matrix10!X11)</f>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>SUM(matrix1:matrix10!A12)</f>
         <v>0</v>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="I12">
         <f>SUM(matrix1:matrix10!I12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <f>SUM(matrix1:matrix10!J12)</f>
@@ -6544,51 +6544,51 @@
       </c>
       <c r="L12">
         <f>SUM(matrix1:matrix10!L12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12">
         <f>SUM(matrix1:matrix10!M12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <f>SUM(matrix1:matrix10!N12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12">
         <f>SUM(matrix1:matrix10!O12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P12">
         <f>SUM(matrix1:matrix10!P12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <f>SUM(matrix1:matrix10!Q12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <f>SUM(matrix1:matrix10!R12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S12">
         <f>SUM(matrix1:matrix10!S12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T12">
         <f>SUM(matrix1:matrix10!T12)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U12">
         <f>SUM(matrix1:matrix10!U12)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V12">
         <f>SUM(matrix1:matrix10!V12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W12">
         <f>SUM(matrix1:matrix10!W12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <f>SUM(matrix1:matrix10!X12)</f>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>SUM(matrix1:matrix10!A13)</f>
         <v>0</v>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="I13">
         <f>SUM(matrix1:matrix10!I13)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <f>SUM(matrix1:matrix10!J13)</f>
@@ -6654,43 +6654,43 @@
       </c>
       <c r="K13">
         <f>SUM(matrix1:matrix10!K13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L13">
         <f>SUM(matrix1:matrix10!L13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13">
         <f>SUM(matrix1:matrix10!M13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <f>SUM(matrix1:matrix10!N13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O13">
         <f>SUM(matrix1:matrix10!O13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P13">
         <f>SUM(matrix1:matrix10!P13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q13">
         <f>SUM(matrix1:matrix10!Q13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <f>SUM(matrix1:matrix10!R13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S13">
         <f>SUM(matrix1:matrix10!S13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13">
         <f>SUM(matrix1:matrix10!T13)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U13">
         <f>SUM(matrix1:matrix10!U13)</f>
@@ -6698,11 +6698,11 @@
       </c>
       <c r="V13">
         <f>SUM(matrix1:matrix10!V13)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <f>SUM(matrix1:matrix10!W13)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <f>SUM(matrix1:matrix10!X13)</f>
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>SUM(matrix1:matrix10!A14)</f>
         <v>0</v>
@@ -6808,15 +6808,15 @@
       </c>
       <c r="U14">
         <f>SUM(matrix1:matrix10!U14)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V14">
         <f>SUM(matrix1:matrix10!V14)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <f>SUM(matrix1:matrix10!W14)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <f>SUM(matrix1:matrix10!X14)</f>
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>SUM(matrix1:matrix10!A15)</f>
         <v>0</v>
@@ -6922,15 +6922,15 @@
       </c>
       <c r="U15">
         <f>SUM(matrix1:matrix10!U15)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V15">
         <f>SUM(matrix1:matrix10!V15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <f>SUM(matrix1:matrix10!W15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <f>SUM(matrix1:matrix10!X15)</f>
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>SUM(matrix1:matrix10!A16)</f>
         <v>0</v>
@@ -7036,15 +7036,15 @@
       </c>
       <c r="U16">
         <f>SUM(matrix1:matrix10!U16)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V16">
         <f>SUM(matrix1:matrix10!V16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <f>SUM(matrix1:matrix10!W16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X16">
         <f>SUM(matrix1:matrix10!X16)</f>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>SUM(matrix1:matrix10!A17)</f>
         <v>0</v>
@@ -7150,15 +7150,15 @@
       </c>
       <c r="U17">
         <f>SUM(matrix1:matrix10!U17)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V17">
         <f>SUM(matrix1:matrix10!V17)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <f>SUM(matrix1:matrix10!W17)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <f>SUM(matrix1:matrix10!X17)</f>
@@ -7181,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>SUM(matrix1:matrix10!A18)</f>
         <v>0</v>
@@ -7264,15 +7264,15 @@
       </c>
       <c r="U18">
         <f>SUM(matrix1:matrix10!U18)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V18">
         <f>SUM(matrix1:matrix10!V18)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <f>SUM(matrix1:matrix10!W18)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <f>SUM(matrix1:matrix10!X18)</f>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>SUM(matrix1:matrix10!A19)</f>
         <v>0</v>
@@ -7378,15 +7378,15 @@
       </c>
       <c r="U19">
         <f>SUM(matrix1:matrix10!U19)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V19">
         <f>SUM(matrix1:matrix10!V19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <f>SUM(matrix1:matrix10!W19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <f>SUM(matrix1:matrix10!X19)</f>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>SUM(matrix1:matrix10!A20)</f>
         <v>0</v>
@@ -7492,15 +7492,15 @@
       </c>
       <c r="U20">
         <f>SUM(matrix1:matrix10!U20)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V20">
         <f>SUM(matrix1:matrix10!V20)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <f>SUM(matrix1:matrix10!W20)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <f>SUM(matrix1:matrix10!X20)</f>
@@ -7523,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>SUM(matrix1:matrix10!A21)</f>
         <v>0</v>
@@ -7558,63 +7558,63 @@
       </c>
       <c r="I21">
         <f>SUM(matrix1:matrix10!I21)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <f>SUM(matrix1:matrix10!J21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K21">
         <f>SUM(matrix1:matrix10!K21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L21">
         <f>SUM(matrix1:matrix10!L21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21">
         <f>SUM(matrix1:matrix10!M21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21">
         <f>SUM(matrix1:matrix10!N21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O21">
         <f>SUM(matrix1:matrix10!O21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P21">
         <f>SUM(matrix1:matrix10!P21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q21">
         <f>SUM(matrix1:matrix10!Q21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R21">
         <f>SUM(matrix1:matrix10!R21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S21">
         <f>SUM(matrix1:matrix10!S21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T21">
         <f>SUM(matrix1:matrix10!T21)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U21">
         <f>SUM(matrix1:matrix10!U21)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V21">
         <f>SUM(matrix1:matrix10!V21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <f>SUM(matrix1:matrix10!W21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <f>SUM(matrix1:matrix10!X21)</f>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>SUM(matrix1:matrix10!A22)</f>
         <v>0</v>
@@ -7672,11 +7672,11 @@
       </c>
       <c r="I22">
         <f>SUM(matrix1:matrix10!I22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <f>SUM(matrix1:matrix10!J22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22">
         <f>SUM(matrix1:matrix10!K22)</f>
@@ -7684,51 +7684,51 @@
       </c>
       <c r="L22">
         <f>SUM(matrix1:matrix10!L22)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22">
         <f>SUM(matrix1:matrix10!M22)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22">
         <f>SUM(matrix1:matrix10!N22)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O22">
         <f>SUM(matrix1:matrix10!O22)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P22">
         <f>SUM(matrix1:matrix10!P22)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q22">
         <f>SUM(matrix1:matrix10!Q22)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R22">
         <f>SUM(matrix1:matrix10!R22)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S22">
         <f>SUM(matrix1:matrix10!S22)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T22">
         <f>SUM(matrix1:matrix10!T22)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U22">
         <f>SUM(matrix1:matrix10!U22)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V22">
         <f>SUM(matrix1:matrix10!V22)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W22">
         <f>SUM(matrix1:matrix10!W22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <f>SUM(matrix1:matrix10!X22)</f>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>SUM(matrix1:matrix10!A23)</f>
         <v>0</v>
@@ -7865,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>SUM(matrix1:matrix10!A24)</f>
         <v>0</v>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>SUM(matrix1:matrix10!A25)</f>
         <v>0</v>
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>SUM(matrix1:matrix10!A26)</f>
         <v>0</v>
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>SUM(matrix1:matrix10!A27)</f>
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>SUM(matrix1:matrix10!A28)</f>
         <v>0</v>
@@ -8448,12 +8448,12 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="28" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -10874,12 +10874,12 @@
       <selection activeCell="M20" sqref="I20:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="28" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -13300,12 +13300,12 @@
       <selection activeCell="K20" sqref="J20:K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="28" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -15541,7 +15541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -15720,18 +15720,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691A3839-4AD7-46A1-8727-52A4D532AF5F}">
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="A2" sqref="A2:AB29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="28" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -16161,7 +16161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -16187,43 +16187,43 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -16247,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -16312,7 +16312,7 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -16333,7 +16333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -16395,10 +16395,10 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -16481,10 +16481,10 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -16505,7 +16505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -16567,10 +16567,10 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -16591,7 +16591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -16620,7 +16620,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -16653,10 +16653,10 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -16677,7 +16677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -16739,10 +16739,10 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -16763,7 +16763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -16828,7 +16828,7 @@
         <v>1</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -16849,7 +16849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -16911,10 +16911,10 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -16935,7 +16935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -16997,10 +16997,10 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -17021,7 +17021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -17083,10 +17083,10 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -17107,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -17169,10 +17169,10 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -17255,10 +17255,10 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -17279,7 +17279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -17341,10 +17341,10 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -17365,7 +17365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -17427,10 +17427,10 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -17451,7 +17451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -17513,10 +17513,10 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -17537,7 +17537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -17563,16 +17563,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -17602,7 +17602,7 @@
         <v>1</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -17623,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -17795,7 +17795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -18136,6 +18136,92 @@
         <v>0</v>
       </c>
       <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
         <v>0</v>
       </c>
     </row>
@@ -18152,12 +18238,12 @@
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="28" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -18243,7 +18329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18329,7 +18415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -18415,7 +18501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -18501,7 +18587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -18587,7 +18673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -18673,7 +18759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -18759,7 +18845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -18845,7 +18931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -18931,7 +19017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -19017,7 +19103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -19103,7 +19189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -19189,7 +19275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -19275,7 +19361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -19361,7 +19447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -19447,7 +19533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -19533,7 +19619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -19619,7 +19705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -19705,7 +19791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -19791,7 +19877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -19877,7 +19963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -19963,7 +20049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -20049,7 +20135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -20135,7 +20221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -20221,7 +20307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -20307,7 +20393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -20393,7 +20479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -20479,7 +20565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -20578,12 +20664,12 @@
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="28" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -20669,7 +20755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20755,7 +20841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -20841,7 +20927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -20927,7 +21013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -21013,7 +21099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -21099,7 +21185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -21185,7 +21271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -21271,7 +21357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -21357,7 +21443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -21443,7 +21529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -21529,7 +21615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -21615,7 +21701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -21701,7 +21787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -21787,7 +21873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -21873,7 +21959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -21959,7 +22045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -22045,7 +22131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -22131,7 +22217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -22217,7 +22303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -22303,7 +22389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -22389,7 +22475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -22475,7 +22561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -22561,7 +22647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -22647,7 +22733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -22733,7 +22819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -22819,7 +22905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -22905,7 +22991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -23001,15 +23087,15 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="28" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -23095,7 +23181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -23181,7 +23267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -23267,7 +23353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -23353,7 +23439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -23439,7 +23525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -23465,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -23525,7 +23611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -23551,49 +23637,49 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>1</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -23611,7 +23697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -23637,13 +23723,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -23673,13 +23759,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -23697,7 +23783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -23723,13 +23809,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -23759,13 +23845,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -23783,7 +23869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -23809,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -23845,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -23869,7 +23955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -23895,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -23931,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -23955,7 +24041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -23981,49 +24067,49 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -24041,7 +24127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -24073,43 +24159,43 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13">
         <v>1</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -24127,7 +24213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -24189,13 +24275,13 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -24213,7 +24299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -24275,13 +24361,13 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -24299,7 +24385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -24361,13 +24447,13 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -24385,7 +24471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -24447,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -24471,7 +24557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -24533,13 +24619,13 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -24557,7 +24643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -24619,13 +24705,13 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -24643,7 +24729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -24705,13 +24791,13 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -24729,7 +24815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -24755,49 +24841,49 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -24815,7 +24901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -24853,37 +24939,37 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -24901,7 +24987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -24987,7 +25073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -25073,7 +25159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -25159,7 +25245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -25245,7 +25331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -25331,7 +25417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -25430,12 +25516,12 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="28" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -25521,7 +25607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -25607,7 +25693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -25693,7 +25779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -25779,7 +25865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -25865,7 +25951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -25951,7 +26037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -26037,7 +26123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -26123,7 +26209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -26209,7 +26295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -26295,7 +26381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -26381,7 +26467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -26467,7 +26553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -26553,7 +26639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -26639,7 +26725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -26725,7 +26811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -26811,7 +26897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -26897,7 +26983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -26983,7 +27069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -27069,7 +27155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -27155,7 +27241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -27241,7 +27327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -27327,7 +27413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -27413,7 +27499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -27499,7 +27585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -27585,7 +27671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -27671,7 +27757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -27757,7 +27843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
